--- a/public/uploads/add_user_by_use_excel.xlsx
+++ b/public/uploads/add_user_by_use_excel.xlsx
@@ -427,7 +427,7 @@
         <v>student008@gmail.com</v>
       </c>
       <c r="D2" t="str">
-        <v>รหัสนักศึกษาถูกใช้ไปแล้ว</v>
+        <v>เพิ่มสำเร็จ</v>
       </c>
     </row>
     <row r="3">
@@ -446,16 +446,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>633020568-6</v>
+        <v>633020568-0</v>
       </c>
       <c r="B4" t="str">
         <v>firstname003 lastname003</v>
       </c>
       <c r="C4" t="str">
-        <v>student003@gmail.com</v>
+        <v>student009@gmail.com</v>
       </c>
       <c r="D4" t="str">
-        <v>อีเมลถูกใช้ไปแล้ว</v>
+        <v>เพิ่มสำเร็จ</v>
       </c>
     </row>
     <row r="5">
@@ -469,21 +469,21 @@
         <v>student004@gmail.com</v>
       </c>
       <c r="D5" t="str">
-        <v>อีเมลถูกใช้ไปแล้ว</v>
+        <v>เพิ่มสำเร็จ</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>633020568-8</v>
+        <v>633020558-8</v>
       </c>
       <c r="B6" t="str">
         <v>firstname005 lastname005</v>
       </c>
       <c r="C6" t="str">
-        <v>student005@gmail.com</v>
+        <v>student015@gmail.com</v>
       </c>
       <c r="D6" t="str">
-        <v>อีเมลถูกใช้ไปแล้ว</v>
+        <v>เพิ่มสำเร็จ</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         <v>student006@gmail.com</v>
       </c>
       <c r="D7" t="str">
-        <v>อีเมลถูกใช้ไปแล้ว</v>
+        <v>รหัสนักศึกษาถูกใช้ไปแล้ว</v>
       </c>
     </row>
     <row r="8">
@@ -511,7 +511,7 @@
         <v>student007@gmail.com</v>
       </c>
       <c r="D8" t="str">
-        <v>อีเมลถูกใช้ไปแล้ว</v>
+        <v>เพิ่มสำเร็จ</v>
       </c>
     </row>
   </sheetData>

--- a/public/uploads/add_user_by_use_excel.xlsx
+++ b/public/uploads/add_user_by_use_excel.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -421,102 +421,18 @@
         <v>633020568-3</v>
       </c>
       <c r="B2" t="str">
-        <v>firstname001 lastname001</v>
+        <v>jirakorn donhuabo</v>
       </c>
       <c r="C2" t="str">
-        <v>student008@gmail.com</v>
+        <v>jirakorn@kkumail.com</v>
       </c>
       <c r="D2" t="str">
-        <v>เพิ่มสำเร็จ</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>633020568-3</v>
-      </c>
-      <c r="B3" t="str">
-        <v>firstname002 lastname002</v>
-      </c>
-      <c r="C3" t="str">
-        <v>student002@gmail.com</v>
-      </c>
-      <c r="D3" t="str">
         <v>รหัสนักศึกษาถูกใช้ไปแล้ว</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>633020568-0</v>
-      </c>
-      <c r="B4" t="str">
-        <v>firstname003 lastname003</v>
-      </c>
-      <c r="C4" t="str">
-        <v>student009@gmail.com</v>
-      </c>
-      <c r="D4" t="str">
-        <v>เพิ่มสำเร็จ</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>633020568-7</v>
-      </c>
-      <c r="B5" t="str">
-        <v>firstname004 lastname004</v>
-      </c>
-      <c r="C5" t="str">
-        <v>student004@gmail.com</v>
-      </c>
-      <c r="D5" t="str">
-        <v>เพิ่มสำเร็จ</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>633020558-8</v>
-      </c>
-      <c r="B6" t="str">
-        <v>firstname005 lastname005</v>
-      </c>
-      <c r="C6" t="str">
-        <v>student015@gmail.com</v>
-      </c>
-      <c r="D6" t="str">
-        <v>เพิ่มสำเร็จ</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>633020568-9</v>
-      </c>
-      <c r="B7" t="str">
-        <v>firstname006 lastname006</v>
-      </c>
-      <c r="C7" t="str">
-        <v>student006@gmail.com</v>
-      </c>
-      <c r="D7" t="str">
-        <v>รหัสนักศึกษาถูกใช้ไปแล้ว</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>633020568-10</v>
-      </c>
-      <c r="B8" t="str">
-        <v>firstname007 lastname007</v>
-      </c>
-      <c r="C8" t="str">
-        <v>student007@gmail.com</v>
-      </c>
-      <c r="D8" t="str">
-        <v>เพิ่มสำเร็จ</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/uploads/add_user_by_use_excel.xlsx
+++ b/public/uploads/add_user_by_use_excel.xlsx
@@ -426,9 +426,6 @@
       <c r="C2" t="str">
         <v>jirakorn@kkumail.com</v>
       </c>
-      <c r="D2" t="str">
-        <v>รหัสนักศึกษาถูกใช้ไปแล้ว</v>
-      </c>
     </row>
   </sheetData>
   <ignoredErrors>
